--- a/docs/data-cleaning-requests/modeling/trump.xlsx
+++ b/docs/data-cleaning-requests/modeling/trump.xlsx
@@ -368,92 +368,92 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1***
-(2.9e-15)</t>
+          <t>0.005***
+(0.954)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.822***
-(0.146)</t>
+          <t>0***
+(0.879)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1***
-(1.38e-15)</t>
+          <t>0.647
+(0.405)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.188**
-(0.076)</t>
+          <t>0.262***
+(0.378)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1***
-(2.28e-15)</t>
+          <t>0.012***
+(0.805)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.505***
-(0.136)</t>
+          <t>0.004***
+(0.765)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1***
-(9.35e-16)</t>
+          <t>0.672
+(0.28)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.472***
-(0.054)</t>
+          <t>1.023
+(0.26)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1***
-(2.81e-15)</t>
+          <t>0.02***
+(0.889)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-0.841***
-(0.109)</t>
+          <t>0***
+(0.706)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1***
-(1.17e-15)</t>
+          <t>1.534
+(0.356)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.011
-(0.047)</t>
+          <t>0.105***
+(0.241)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1***
-(2.12e-15)</t>
+          <t>0.067***
+(0.724)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.598***
-(0.102)</t>
+          <t>0.002***
+(0.612)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1***
-(4.84e-16)</t>
+          <t>2.215***
+(0.165)</t>
         </is>
       </c>
     </row>
@@ -465,50 +465,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.13e-15
-(1.66e-15)</t>
+          <t>18.314***
+(0.534)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.014
-(0.074)</t>
+          <t>0.952
+(0.399)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.11e-15
-(1.67e-15)</t>
+          <t>15.205***
+(0.523)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.214***
-(0.072)</t>
+          <t>0.33***
+(0.364)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.03e-15
-(1.66e-15)</t>
+          <t>20.249***
+(0.529)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.076
-(0.074)</t>
+          <t>0.668
+(0.384)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.95e-15
-(1.67e-15)</t>
+          <t>15.388***
+(0.516)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-0.27***
-(0.072)</t>
+          <t>0.259***
+(0.351)</t>
         </is>
       </c>
     </row>
@@ -520,50 +520,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-1.22e-17
-(1.4e-17)</t>
+          <t>1.007
+(0.004)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.004***
-(0.001)</t>
+          <t>1.023***
+(0.004)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.82e-17
-(1.33e-17)</t>
+          <t>1.001
+(0.004)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.004***
-(0.001)</t>
+          <t>1.019***
+(0.004)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-1.1e-17
-(1.4e-17)</t>
+          <t>1.01**
+(0.004)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.004***
-(0.001)</t>
+          <t>1.023***
+(0.004)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.7e-17
-(1.33e-17)</t>
+          <t>1.005
+(0.004)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.004***
-(0.001)</t>
+          <t>1.021***
+(0.004)</t>
         </is>
       </c>
     </row>
@@ -575,50 +575,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.75e-15
-(4.37e-15)</t>
+          <t>3,717.828***
+(1.475)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.822***
-(0.227)</t>
+          <t>71,492.05***
+(1.371)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.98e-15*
-(4.13e-15)</t>
+          <t>2,093.713***
+(1.423)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.784***
-(0.229)</t>
+          <t>27,468.23***
+(1.322)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5.7e-15
-(4.38e-15)</t>
+          <t>2,040.89***
+(1.431)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.837***
-(0.214)</t>
+          <t>75,149.78***
+(1.31)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6.82e-15
-(4.13e-15)</t>
+          <t>903.619***
+(1.378)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.863***
-(0.216)</t>
+          <t>41,342.22***
+(1.265)</t>
         </is>
       </c>
     </row>
@@ -630,50 +630,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-1.76e-15
-(1.94e-15)</t>
+          <t>0.003***
+(0.655)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-2.17e-15
-(1.92e-15)</t>
+          <t>0.001***
+(0.631)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.07e-15
-(1.77e-15)</t>
+          <t>0.002***
+(0.607)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-1.17e-15
-(1.78e-15)</t>
+          <t>0.001***
+(0.585)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-2.09e-16
-(1.52e-15)</t>
+          <t>0.034***
+(0.482)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-6.32e-16
-(1.48e-15)</t>
+          <t>0.013***
+(0.444)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3.57e-16
-(1.33e-15)</t>
+          <t>0.021***
+(0.441)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.97e-16
-(1.34e-15)</t>
+          <t>0.011***
+(0.416)</t>
         </is>
       </c>
     </row>
@@ -685,77 +685,77 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-994</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1,282</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-994</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1,282</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-994</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,282</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-994</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1,282</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-994</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1,282</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-994</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1,282</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-994</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1,282</t>
+          <t>1,326</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-994</t>
+          <t>1,326</t>
         </is>
       </c>
     </row>
@@ -767,77 +767,77 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,176</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,176</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,176</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1,176</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1,176</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1,176</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1,176</t>
+          <t>32</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1,176</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -849,241 +849,241 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>368</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>368</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>368</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>368</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>368</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>368</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>368</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>368</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>368</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>368</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>368</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>368</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>368</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>368</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>r-squared</t>
+          <t>McFadden's r-squared</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.077</t>
+          <t>0.119</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.149</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.074</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.167</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.501</t>
+          <t>0.149</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.058</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.077</t>
+          <t>0.119</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.068</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.146</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>0.097</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.131</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adjusted r-squared</t>
+          <t>Adj. McFadden's r-squared</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.489</t>
+          <t>0.163</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.114</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.492</t>
+          <t>0.144</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>0.163</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.495</t>
+          <t>0.145</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.055</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.492</t>
+          <t>0.145</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.115</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.494</t>
+          <t>0.128</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.066</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.494</t>
+          <t>0.143</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.498</t>
+          <t>0.129</t>
         </is>
       </c>
     </row>
@@ -1095,77 +1095,77 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-11,673.75</t>
+          <t>1,404.309</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1,545.642</t>
+          <t>1,480.004</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-11,677.18</t>
+          <t>1,429.571</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,601.674</t>
+          <t>1,546.432</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-11,678.17</t>
+          <t>1,399.523</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1,570.452</t>
+          <t>1,507.416</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-11,680.48</t>
+          <t>1,422.399</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1,622.531</t>
+          <t>1,566.019</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-11,677.28</t>
+          <t>1,428.594</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1,538.494</t>
+          <t>1,472.829</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-11,680.76</t>
+          <t>1,450.899</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1,603.46</t>
+          <t>1,548.422</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-11,681.85</t>
+          <t>1,427.092</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1,564.328</t>
+          <t>1,501.326</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-11,684.3</t>
+          <t>1,445.051</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:BL14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1191,188 +1191,380 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.183**
-(0.088)</t>
+          <t>2.627**
+(0.353)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.717***
-(0.062)</t>
+          <t>0.714
+(0.286)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.023
-(0.087)</t>
+          <t>3.69***
+(0.342)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.752***
-(0.065)</t>
+          <t>1.067
+(0.269)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.251***
-(0.089)</t>
+          <t>1.24
+(0.322)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.646***
-(0.056)</t>
+          <t>0.473**
+(0.272)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.052
-(0.091)</t>
+          <t>1.704*
+(0.311)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.603***
-(0.059)</t>
+          <t>0.709
+(0.255)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.337***
-(0.03)</t>
+          <t>0.852
+(0.235)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.139***
-(0.03)</t>
+          <t>0.155***
+(0.17)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.36***
-(0.03)</t>
+          <t>1.099
+(0.226)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.135***
-(0.031)</t>
+          <t>0.2***
+(0.162)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.452***
-(0.028)</t>
+          <t>0.497***
+(0.205)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.158***
-(0.018)</t>
+          <t>0.119***
+(0.155)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.537***
-(0.027)</t>
+          <t>0.613**
+(0.196)</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.219***
-(0.019)</t>
+          <t>0.149***
+(0.147)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.398***
-(0.047)</t>
+          <t>8.185***
+(0.318)</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.051
-(0.033)</t>
+          <t>1.196
+(0.245)</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.614***
-(0.04)</t>
+          <t>15.406***
+(0.304)</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.139***
-(0.033)</t>
+          <t>2.071***
+(0.228)</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.393***
-(0.048)</t>
+          <t>3.997***
+(0.283)</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-0.032
-(0.025)</t>
+          <t>0.796
+(0.23)</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.736***
-(0.04)</t>
+          <t>7.363***
+(0.268)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.239***
-(0.019)</t>
+          <t>1.378
+(0.213)</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.359***
-(0.03)</t>
+          <t>2.314***
+(0.212)</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.119***
-(0.028)</t>
+          <t>0.26***
+(0.128)</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.436***
-(0.03)</t>
+          <t>3.826***
+(0.205)</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.186***
-(0.029)</t>
+          <t>0.387***
+(0.121)</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.456***
-(0.028)</t>
+          <t>1.419**
+(0.178)</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.141***
-(0.016)</t>
+          <t>0.196***
+(0.11)</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.595***
-(0.027)</t>
+          <t>2.133***
+(0.17)</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.282***
+(0.101)</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>2.826***
+(0.342)</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.508**
+(0.275)</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>6.215***
+(0.314)</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>1.092
+(0.247)</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1.391
+(0.319)</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0.396***
+(0.267)</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>3.08***
+(0.287)</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0.854
+(0.239)</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.915
+(0.233)</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0.118***
+(0.159)</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>1.695**
+(0.209)</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>0.22***
+(0.136)</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>0.504***
+(0.202)</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>0.106***
+(0.15)</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>0.786
+(0.177)</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>0.182***
+(0.13)</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>8.353***
+(0.312)</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>0.842
+(0.23)</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>25.826***
+(0.286)</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>2.297***
+(0.193)</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>4.143***
+(0.283)</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>0.658*
+(0.221)</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>12.279***
+(0.256)</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>1.861***
+(0.186)</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>2.382***
+(0.213)</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>0.197***
+(0.111)</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>5.915***
+(0.199)</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>0.468***
+(0.068)</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>1.349*
+(0.176)</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>0.174***
+(0.101)</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>2.547***
+(0.159)</t>
         </is>
       </c>
     </row>
@@ -1384,1482 +1576,3121 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.425***
-(0.055)</t>
+          <t>1.189
+(0.214)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.626***
-(0.05)</t>
+          <t>0.431***
+(0.183)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.455***
-(0.056)</t>
+          <t>2.05***
+(0.19)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.786***
-(0.051)</t>
+          <t>1.033
+(0.148)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.473***
-(0.055)</t>
+          <t>1.786***
+(0.2)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.609***
-(0.05)</t>
+          <t>0.555***
+(0.173)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.551***
-(0.057)</t>
+          <t>3.301***
+(0.171)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.767***
-(0.051)</t>
+          <t>1.346**
+(0.135)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.121***
-(0.027)</t>
+          <t>1.405
+(0.21)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-0.048*
-(0.027)</t>
+          <t>0.454***
+(0.18)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.214***
-(0.023)</t>
+          <t>2.533***
+(0.186)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.096***
-(0.025)</t>
+          <t>1.165
+(0.145)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.063**
-(0.026)</t>
+          <t>2.137***
+(0.187)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.05*
-(0.027)</t>
+          <t>0.639**
+(0.167)</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.193***
-(0.024)</t>
+          <t>3.883***
+(0.167)</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.098***
-(0.025)</t>
+          <t>1.512***
+(0.131)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1.07
+(0.207)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.449***
+(0.182)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2.158***
+(0.179)</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1.132
+(0.145)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1.563**
+(0.194)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.579***
+(0.171)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>3.295***
+(0.162)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1.472***
+(0.132)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>1.276
+(0.205)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.474***
+(0.179)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2.851***
+(0.174)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>1.31*
+(0.141)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>1.985***
+(0.188)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0.665**
+(0.166)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>4.152***
+(0.159)</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>1.68***
+(0.128)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuition (thousands of dollars)</t>
+          <t>Proportion of nonwhite instructors</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.012***
-(0.002)</t>
+          <t>137.737***
+(0.639)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.022***
-(0.001)</t>
+          <t>5.536***
+(0.46)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.009***
-(0.002)</t>
+          <t>257.49***
+(0.612)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.022***
-(0.001)</t>
+          <t>8.671***
+(0.441)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.015***
-(0.002)</t>
+          <t>102.333***
+(0.629)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.021***
-(0.001)</t>
+          <t>5.543***
+(0.456)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.013***
-(0.002)</t>
+          <t>191.943***
+(0.602)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.022***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-0.001
-(0.001)</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.006***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.005***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.002**
-(0.001)</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.001
-(0.001)</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0.006***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.002**
-(0.001)</t>
+          <t>8.516***
+(0.436)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>230.99***
+(0.634)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>9.302***
+(0.446)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>478.1***
+(0.607)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>15.929***
+(0.428)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>177.85***
+(0.616)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>8.724***
+(0.437)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>337.42***
+(0.592)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>14.049***
+(0.418)</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>131.088***
+(0.634)</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>4.859***
+(0.452)</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>245.006***
+(0.595)</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>8.778***
+(0.437)</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>82.974***
+(0.617)</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>4.956***
+(0.45)</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>160.731***
+(0.566)</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>9.786***
+(0.434)</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>214.519***
+(0.629)</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>8.366***
+(0.439)</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>500.332***
+(0.587)</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>16.836***
+(0.426)</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>149.237***
+(0.608)</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>8.12***
+(0.432)</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>328.772***
+(0.555)</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>16.899***
+(0.417)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nonwhite proportion of enrolled students</t>
+          <t>Proportion of expenses spent on instruction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.41***
-(0.061)</t>
+          <t>0.972***
+(0.007)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.137**
-(0.053)</t>
+          <t>0.963***
+(0.006)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.59***
-(0.058)</t>
+          <t>0.97***
+(0.006)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.279***
-(0.054)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.517***
-(0.06)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.047
-(0.058)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.65***
-(0.057)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.196***
-(0.059)</t>
+          <t>0.958***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.976***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.966***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.974***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.961***
+(0.006)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.471***
-(0.062)</t>
+          <t>0.965***
+(0.006)</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.049
-(0.056)</t>
+          <t>0.96***
+(0.006)</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.669***
-(0.059)</t>
+          <t>0.96***
+(0.006)</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.218***
-(0.059)</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.449***
-(0.058)</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.056
-(0.057)</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.605***
-(0.059)</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0.203***
-(0.059)</t>
+          <t>0.954***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.968***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.962***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.963***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.957***
+(0.005)</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.971***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.964***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.964***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.958***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>0.973***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.967***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0.964***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0.96***
+(0.005)</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>0.965***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>0.961***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>0.954***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>0.953***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>0.966***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>0.963***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>0.953***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>0.954***
+(0.005)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total enrollment at university (thousands)</t>
+          <t>Proportion of revenue coming from investments</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.008***
-(0.001)</t>
+          <t>0.96***
+(0.007)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.011***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.01***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.012***
-(0.001)</t>
+          <t>0.973***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.958***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.973***
+(0.006)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.007***
-(0.001)</t>
+          <t>0.961***
+(0.007)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.012***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.009***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.012***
-(0.001)</t>
+          <t>0.974***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.959***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.974***
+(0.006)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.008***
-(0.001)</t>
+          <t>0.963***
+(0.007)</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.014***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.011***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0.014***
-(0.001)</t>
+          <t>0.973***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.961***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.973***
+(0.006)</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.009***
-(0.001)</t>
+          <t>0.965***
+(0.007)</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.011***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0.011***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0.011***
-(0.001)</t>
+          <t>0.974***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>0.963***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>0.973***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0.958***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0.981***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>0.946***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>0.972***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0.958***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0.982***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0.943***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>0.971***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>0.962***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>0.981***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>0.948***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>0.971***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>0.962***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>0.981***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>0.944***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>0.969***
+(0.006)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proportion of Pell grant recipients</t>
+          <t>Total enrollment at university (thousands)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.853***
-(0.1)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-1.138***
-(0.095)</t>
+          <t>1.04***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.066***
+(0.007)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.5***
-(0.087)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-0.702***
-(0.089)</t>
+          <t>1.042***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.067***
+(0.007)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-1.263***
-(0.076)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-1.419***
-(0.074)</t>
+          <t>1.042***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.072***
+(0.007)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0.947***
-(0.069)</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-1.07***
-(0.07)</t>
+          <t>1.041***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.066***
+(0.007)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-1.194***
-(0.092)</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-1.527***
-(0.085)</t>
+          <t>1.052***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1.069***
+(0.007)</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.826***
-(0.08)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-1.113***
-(0.08)</t>
+          <t>1.053***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1.069***
+(0.007)</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-1.129***
-(0.071)</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>-1.231***
-(0.073)</t>
+          <t>1.057***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1.077***
+(0.007)</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-0.896***
-(0.066)</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>-0.921***
-(0.07)</t>
+          <t>1.053***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1.071***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>1.042***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1.049***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>1.053***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>1.053***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>1.047***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>1.055***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>1.055***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>1.056***
+(0.005)</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>1.053***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>1.052***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>1.062***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>1.056***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>1.062***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>1.06***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>1.067***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>1.061***
+(0.005)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Proportion of Pell grant recipients</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,258</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,264</t>
+          <t>0***
+(0.671)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,258</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,264</t>
+          <t>0***
+(0.655)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,258</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1,264</t>
+          <t>0***
+(0.66)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1,258</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1,264</t>
+          <t>0***
+(0.643)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1,260</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1,268</t>
+          <t>0***
+(0.673)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1,260</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1,268</t>
+          <t>6.48e-05***
+(0.656)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1,260</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1,268</t>
+          <t>0***
+(0.651)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1,260</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1,282</t>
+          <t>0***
+(0.642)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1,258</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1,264</t>
+          <t>0.001***
+(0.652)</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1,258</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1,264</t>
+          <t>0***
+(0.638)</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1,258</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>1,264</t>
+          <t>0.001***
+(0.641)</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1,258</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>1,264</t>
+          <t>0***
+(0.625)</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1,260</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>1,268</t>
+          <t>0***
+(0.657)</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1,260</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1,268</t>
+          <t>0***
+(0.642)</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1,260</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>1,268</t>
+          <t>0***
+(0.646)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1,260</t>
+          <t>0***
+(0.629)</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0***
+(0.63)</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0***
+(0.612)</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.58)</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.54)</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0***
+(0.629)</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>0***
+(0.611)</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>0***
+(0.577)</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.534)</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.616)</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.594)</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.576)</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>0.003***
+(0.526)</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>0***
+(0.616)</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.588)</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.575)</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>0.002***
+(0.515)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAs</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1,295</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1,298</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1,295</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1,302</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1,298</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1,302</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1,298</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1,306</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1,295</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1,298</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1,295</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1,302</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1,314</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1,318</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1,314</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1,322</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1,299</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1,304</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1,299</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1,303</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1,299</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1,308</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1,299</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1,304</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1,315</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1,319</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1,315</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>1,326</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>1,295</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1,298</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>1,295</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>1,302</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>1,298</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>1,302</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>1,298</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>1,306</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>1,295</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>1,298</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>1,295</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>1,302</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>1,314</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>1,318</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>1,314</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>1,322</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>1,296</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>1,299</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>1,296</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>1,304</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>1,299</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>1,303</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>1,299</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>1,308</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>1,296</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>1,299</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>1,296</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>1,304</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>1,315</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>1,319</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>1,315</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Incidents</t>
+          <t>NAs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>63</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>44</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>40</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>44</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>62</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>59</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>62</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>54</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>59</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>55</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>59</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>50</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>r-squared</t>
+          <t>Incidents</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.283</t>
+          <t>368</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.243</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>368</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.167</t>
+          <t>368</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.258</t>
+          <t>368</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.239</t>
+          <t>368</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>368</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.151</t>
+          <t>368</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.261</t>
+          <t>368</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>368</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.237</t>
+          <t>368</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>368</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.219</t>
+          <t>368</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>368</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.161</t>
+          <t>368</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>368</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>368</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.154</t>
+          <t>368</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.212</t>
+          <t>368</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>368</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.217</t>
+          <t>368</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>368</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.133</t>
+          <t>368</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>368</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.249</t>
+          <t>368</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>368</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>368</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>368</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>0.215</t>
+          <t>368</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>368</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>0.118</t>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>368</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Adjusted r-squared</t>
+          <t>McFadden's r-squared</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.352</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.241</t>
+          <t>0.212</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.149</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.319</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.192</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.186</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.316</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.112</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.306</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.155</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.279</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.086</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.316</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.204</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.279</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.133</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.287</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0.183</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>0.247</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.165</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.256</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.238</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.188</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0.111</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0.297</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.171</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>0.084</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>0.265</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0.218</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0.351</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0.199</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>0.321</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>0.149</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.259</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.235</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0.019</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.217</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>0.314</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>0.185</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>0.262</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0.124</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0.338</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0.174</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>0.111</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>0.296</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>0.234</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>0.079</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>0.316</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>0.191</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>0.267</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>0.284</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>0.177</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>0.212</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>0.296</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
         <is>
           <t>0.16</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.011</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.248</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.152</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.215</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0.152</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.131</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0.004</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0.248</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.103</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0.183</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>0.008</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>0.214</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0.103</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0.117</t>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>0.227</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>0.082</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>0.257</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>0.163</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Adj. McFadden's r-squared</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.343</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.205</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.323</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.312</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.186</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.289</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.123</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.333</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.107</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.274</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.082</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.309</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.197</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.273</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.128</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.281</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.242</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.107</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.291</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>0.166</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0.245</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0.081</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0.214</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0.057</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0.344</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0.193</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>0.315</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>0.144</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>0.308</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0.258</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0.121</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0.332</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0.169</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>0.107</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>0.292</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>0.147</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>0.231</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>0.077</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>0.186</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>0.262</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>0.129</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>0.279</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>0.173</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>0.208</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>0.103</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>0.291</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>0.156</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>0.224</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>0.253</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>0.161</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>BIC</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1,223.054</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1,287.599</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1,275.342</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,405.588</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,260.252</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1,286.993</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1,368.15</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1,424.513</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1,255.504</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1,498.451</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1,290.622</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>1,612.624</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1,321.551</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1,491.942</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1,407.686</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>1,620.866</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>1,274.854</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1,426.635</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>1,332.894</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1,618.538</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1,324.351</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>1,420.225</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>1,450.496</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>1,624.934</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>1,268.974</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>1,494.504</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>1,370.201</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>1,620.587</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>1,320.163</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>1,488.262</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>1,465.438</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1,117.711</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,339.803</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,145.814</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,436.715</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1,164.073</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,366.059</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1,197.169</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1,465.336</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1,129.542</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1,376.122</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1,162.057</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1,491.446</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1,177.968</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1,420.531</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1,216.359</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1,526.909</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1,168.472</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1,347.063</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>1,223.232</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1,456.63</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1,209.493</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>1,373.271</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1,268.189</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>1,485.157</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>1,193.802</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>1,393.771</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>1,262.953</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>1,529.277</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>1,239.014</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>1,437.59</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>1,309.191</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>1,563.691</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>1,111.202</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>1,354.679</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>1,153.372</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>1,429.59</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>1,165.302</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>1,370.889</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,242.948</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>1,463.056</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>1,124.99</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>1,388.783</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>1,180.659</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>1,485.391</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>1,187.104</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>1,420.677</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>1,282.382</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>1,529.865</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>1,161.41</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>1,360.053</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>1,235.087</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>1,450.188</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>1,207.572</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>1,376.552</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>1,319.48</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>1,486.662</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>1,188.052</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>1,404.669</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>1,293.508</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>1,525.797</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>1,244.95</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>1,436.543</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>1,392.068</t>
         </is>
       </c>
     </row>
@@ -2870,7 +4701,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,8 +4727,8 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1***
-(4.6e-15)</t>
+          <t>0.381
+(1.199)</t>
         </is>
       </c>
     </row>
@@ -2909,184 +4740,197 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-3.27e-15
-(2.47e-15)</t>
+          <t>1.322
+(0.225)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuition (thousands of dollars)</t>
+          <t>Proportion of nonwhite instructors</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-6.42e-17
-(7e-17)</t>
+          <t>56.716***
+(0.76)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nonwhite proportion of enrolled students</t>
+          <t>Proportion of expenses spent on instruction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-1.38e-15
-(1.93e-15)</t>
+          <t>0.974***
+(0.007)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total enrollment at university (thousands)</t>
+          <t>Proportion of revenue coming from investments</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6.34e-17**
-(2.91e-17)</t>
+          <t>0.963***
+(0.007)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proportion of Pell grant recipients</t>
+          <t>Total enrollment at university (thousands)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-1.18e-15
-(2.85e-15)</t>
+          <t>1.033***
+(0.007)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>White proportion in county of university</t>
+          <t>Proportion of Pell grant recipients</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.84e-15
-(1.98e-15)</t>
+          <t>0***
+(0.693)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Median household income (thousands)</t>
+          <t>White proportion in county of university</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-1.44e-17
-(1.59e-17)</t>
+          <t>6.252**
+(0.67)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proportion of households spending more than 30% of income on rent</t>
+          <t>Median household income (thousands)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.72e-15
-(4.77e-15)</t>
+          <t>0.997
+(0.005)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proportion in county voting Republican in 2016 presidential election</t>
+          <t>Proportion of households spending more than 30% of income on rent</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-1.3e-15
-(2.07e-15)</t>
+          <t>73.056**
+(1.761)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Proportion in county voting Republican in 2016 presidential election</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-994</t>
+          <t>0.033***
+(0.759)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NAs</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1,176</t>
+          <t>1,295</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Incidents</t>
+          <t>NAs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>63</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>r-squared</t>
+          <t>Incidents</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>368</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Adjusted r-squared</t>
+          <t>McFadden's r-squared</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.474</t>
+          <t>0.372</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Adj. McFadden's r-squared</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.358</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>BIC</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>-11,654.96</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1,113.222</t>
         </is>
       </c>
     </row>

--- a/docs/data-cleaning-requests/modeling/trump.xlsx
+++ b/docs/data-cleaning-requests/modeling/trump.xlsx
@@ -359,7 +359,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>university</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
